--- a/datasets/samsung/samsung_cleaned_combined_dataset.xlsx
+++ b/datasets/samsung/samsung_cleaned_combined_dataset.xlsx
@@ -4762,7 +4762,7 @@
     <t>코스피 조정에도 '개미' 사들인 종목은?, 코스피 3000 유망업종은? 반도체·배터리·친환경 뜬다, 삼전 파운드리 사업부에서 DPS 역할 중요성 증가…코아시아 '관심', 테스, 삼전 中공장에 129억 반도체 장비 공급, 디아이, 삼전에 반도체 검사보드 공급.. 76억 규모, 3000선 안착한 코스피, 2% 올라 3031…'차화전 랠리', '삼천피' 시대, 주도주 세대교체…삼전·LG화학·카카오↑</t>
   </si>
   <si>
-    <t>2021년 성장 모멘텀은 반도체, 20년도 4분기 영업이익 9.0조원(-27% q-q) 기록, 향후 성장 모멘텀은 파운드리, “삼전, 예상된 4Q 실적…주가 상승세 지속”, '차화전 랠리' 코스피 3090선…삼전·현대차·LG화학 '훨훨', 외인 러브콜에 시총상위주 `급등세`, '장중 9만원 터치'…삼전, 4분기 실적 선방에 신고가, 코스피, 단숨에 3150선에 '우뚝'...삼성전자·현대차 등 초강세, 코스피, 4% 급등 3150선 돌파…삼전·현대차 폭등(종합2보), 디아이, 5% 상승…52주 최고가, 현대차-삼성전자 주가↑'9만 전자' 목전...바이넥스-웰크론한텍-비덴트 급등, 테스, SK하이닉스와 81억 공급계약... 매출비 4%, 20년도 4분기 잠정실적 코멘트 - 지나간 실적 보다는 1분기 디램 가격에 주목, 4분기 실적 리뷰, 1분기 전망 및 주가 흐름, 21년도 1분기 영업이익 10.1조원 전망, 매수 투자의견을 유지하고 목표주가를 10만원으로 소폭 상향, 20년도 4분기 실적은 당사 전망치에 부합, 앞만 보고 달려가자, 20년도 4분기 매출액 61조원(-8.9% 전분기 대비 증감율), 영업이익 9.0조원(-27.1% 전분기 대비 증감율), 빨라지는 DRAM 턴어라운드, 년도년도 2분기 4분기 P 시장 컨센서스 소폭 하회, 년도년도 2분기 4분기 P 61.0조원(-8.9% 전분기 대비 증감율, +1.9% 전년 대비 증감율), 영업이익 9.0조원(-27.1% 전분기 대비 증감율, +25.7% 전년 대비 증감율) 기록. 년도년도 2분기 3분기 어닝서프라이즈 역기저와 원화강세 영향으로 시장 컨센서스 소폭 하회, 삼성전자 주가 재평가 전망, 삼전·SDI 타고…삼성그룹 펀드도 '훨훨'</t>
+    <t>2021년 성장 모멘텀은 반도체, 20년도 4분기 영업이익 9.0조원(-27% q-q) 기록, 향후 성장 모멘텀은 파운드리, “삼전, 예상된 4Q 실적…주가 상승세 지속”, '차화전 랠리' 코스피 3090선…삼전·현대차·LG화학 '훨훨', 외인 러브콜에 시총상위주 `급등세`, '장중 9만원 터치'…삼전, 4분기 실적 선방에 신고가, 코스피, 단숨에 3150선에 '우뚝'...삼성전자·현대차 등 초강세, 코스피, 4% 급등 3150선 돌파…삼전·현대차 폭등(종합2보), 디아이, 5% 상승…52주 최고가, 삼성전자 주가↑'9만 전자' 목전...바이넥스-웰크론한텍-비덴트 급등, 테스, SK하이닉스와 81억 공급계약... 매출비 4%, 20년도 4분기 잠정실적 코멘트 - 지나간 실적 보다는 1분기 디램 가격에 주목, 4분기 실적 리뷰, 1분기 전망 및 주가 흐름, 21년도 1분기 영업이익 10.1조원 전망, 매수 투자의견을 유지하고 목표주가를 10만원으로 소폭 상향, 20년도 4분기 실적은 당사 전망치에 부합, 앞만 보고 달려가자, 20년도 4분기 매출액 61조원(-8.9% 전분기 대비 증감율), 영업이익 9.0조원(-27.1% 전분기 대비 증감율), 빨라지는 DRAM 턴어라운드, 년도년도 2분기 4분기 P 시장 컨센서스 소폭 하회, 년도년도 2분기 4분기 P 61.0조원(-8.9% 전분기 대비 증감율, +1.9% 전년 대비 증감율), 영업이익 9.0조원(-27.1% 전분기 대비 증감율, +25.7% 전년 대비 증감율) 기록. 년도년도 2분기 3분기 어닝서프라이즈 역기저와 원화강세 영향으로 시장 컨센서스 소폭 하회, 삼성전자 주가 재평가 전망, 삼전·SDI 타고…삼성그룹 펀드도 '훨훨'</t>
   </si>
   <si>
     <t>삼성전자 주식 사자마자 떡락시켜서(?) 쌍욕 먹고 다급히 방종한 BJ 용느 (영상)</t>
